--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H2">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I2">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J2">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N2">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O2">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P2">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q2">
-        <v>768.3558149640777</v>
+        <v>476.0129586815115</v>
       </c>
       <c r="R2">
-        <v>3073.423259856311</v>
+        <v>1904.051834726046</v>
       </c>
       <c r="S2">
-        <v>0.003269172757077371</v>
+        <v>0.001222916007526951</v>
       </c>
       <c r="T2">
-        <v>0.001525651374749568</v>
+        <v>0.000560793601053247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H3">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I3">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J3">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>25.62246</v>
       </c>
       <c r="O3">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P3">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q3">
-        <v>361.53460595277</v>
+        <v>272.53341963189</v>
       </c>
       <c r="R3">
-        <v>2169.20763571662</v>
+        <v>1635.20051779134</v>
       </c>
       <c r="S3">
-        <v>0.001538244471510579</v>
+        <v>0.0007001605216317043</v>
       </c>
       <c r="T3">
-        <v>0.001076797541937991</v>
+        <v>0.0004816097808326097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H4">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I4">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J4">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N4">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O4">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P4">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q4">
-        <v>3345.686285075748</v>
+        <v>2903.199638347722</v>
       </c>
       <c r="R4">
-        <v>20074.11771045449</v>
+        <v>17419.19783008633</v>
       </c>
       <c r="S4">
-        <v>0.01423510598069514</v>
+        <v>0.007458556003634657</v>
       </c>
       <c r="T4">
-        <v>0.009964818605320043</v>
+        <v>0.00513041425681487</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H5">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I5">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J5">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N5">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O5">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P5">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q5">
-        <v>85.22982283022201</v>
+        <v>66.64099477907926</v>
       </c>
       <c r="R5">
-        <v>340.919291320888</v>
+        <v>266.5639791163171</v>
       </c>
       <c r="S5">
-        <v>0.0003626327925950808</v>
+        <v>0.0001712061358551862</v>
       </c>
       <c r="T5">
-        <v>0.0001692327875161191</v>
+        <v>7.85101387648042E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H6">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I6">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J6">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N6">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O6">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P6">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q6">
-        <v>461.2485245836047</v>
+        <v>6688.722305860783</v>
       </c>
       <c r="R6">
-        <v>2767.491147501628</v>
+        <v>40132.3338351647</v>
       </c>
       <c r="S6">
-        <v>0.001962503675307448</v>
+        <v>0.0171838716332355</v>
       </c>
       <c r="T6">
-        <v>0.001373786269187836</v>
+        <v>0.01182003325730427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H7">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I7">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J7">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N7">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O7">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P7">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q7">
-        <v>4097.388616841255</v>
+        <v>1855.221098237375</v>
       </c>
       <c r="R7">
-        <v>24584.33170104753</v>
+        <v>11131.32658942425</v>
       </c>
       <c r="S7">
-        <v>0.01743342209489572</v>
+        <v>0.004766213896404025</v>
       </c>
       <c r="T7">
-        <v>0.01220369480081181</v>
+        <v>0.00327846994957526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I8">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J8">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N8">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O8">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P8">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q8">
-        <v>506.8188172839806</v>
+        <v>416.5232353111721</v>
       </c>
       <c r="R8">
-        <v>3040.912903703884</v>
+        <v>2499.139411867032</v>
       </c>
       <c r="S8">
-        <v>0.002156394521874512</v>
+        <v>0.001070082069571883</v>
       </c>
       <c r="T8">
-        <v>0.001509513190918726</v>
+        <v>0.0007360626243227531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I9">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J9">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>25.62246</v>
       </c>
       <c r="O9">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P9">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q9">
         <v>238.47355330392</v>
@@ -1013,10 +1013,10 @@
         <v>2146.26197973528</v>
       </c>
       <c r="S9">
-        <v>0.00101464871946217</v>
+        <v>0.0006126579547644624</v>
       </c>
       <c r="T9">
-        <v>0.001065407287933699</v>
+        <v>0.0006321308918528435</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I10">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J10">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N10">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O10">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P10">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q10">
-        <v>2206.863972370146</v>
+        <v>2540.372240008485</v>
       </c>
       <c r="R10">
-        <v>19861.77575133132</v>
+        <v>22863.35016007636</v>
       </c>
       <c r="S10">
-        <v>0.009389685659352141</v>
+        <v>0.006526422906612641</v>
       </c>
       <c r="T10">
-        <v>0.009859411775715834</v>
+        <v>0.006733861040214444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I11">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J11">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N11">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O11">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P11">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q11">
-        <v>56.21884700144533</v>
+        <v>58.31253591629401</v>
       </c>
       <c r="R11">
-        <v>337.313082008672</v>
+        <v>349.8752154977641</v>
       </c>
       <c r="S11">
-        <v>0.0002391979333949837</v>
+        <v>0.0001498096476386872</v>
       </c>
       <c r="T11">
-        <v>0.0001674426604396831</v>
+        <v>0.0001030475003042667</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I12">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J12">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N12">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O12">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P12">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q12">
-        <v>304.2463233188036</v>
+        <v>5852.799181459229</v>
       </c>
       <c r="R12">
-        <v>2738.216909869232</v>
+        <v>52675.19263313305</v>
       </c>
       <c r="S12">
-        <v>0.001294496341751884</v>
+        <v>0.01503631713655934</v>
       </c>
       <c r="T12">
-        <v>0.001359254498874267</v>
+        <v>0.01551423675771848</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I13">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J13">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N13">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O13">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P13">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q13">
-        <v>2702.697906747041</v>
+        <v>1623.364826444568</v>
       </c>
       <c r="R13">
-        <v>24324.28116072337</v>
+        <v>14610.28343800111</v>
       </c>
       <c r="S13">
-        <v>0.0114993420955115</v>
+        <v>0.00417055627606043</v>
       </c>
       <c r="T13">
-        <v>0.01207460536834345</v>
+        <v>0.004303114711571972</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H14">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I14">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J14">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N14">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O14">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P14">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q14">
-        <v>8005.218429578942</v>
+        <v>4492.875560845802</v>
       </c>
       <c r="R14">
-        <v>48031.31057747365</v>
+        <v>26957.25336507482</v>
       </c>
       <c r="S14">
-        <v>0.0340603161904315</v>
+        <v>0.01154256274535823</v>
       </c>
       <c r="T14">
-        <v>0.02384280615386899</v>
+        <v>0.007939623760967702</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H15">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I15">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J15">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>25.62246</v>
       </c>
       <c r="O15">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P15">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q15">
-        <v>3766.69693147176</v>
+        <v>2572.32228292572</v>
       </c>
       <c r="R15">
-        <v>33900.27238324584</v>
+        <v>23150.90054633148</v>
       </c>
       <c r="S15">
-        <v>0.01602640697540646</v>
+        <v>0.006608505165534509</v>
       </c>
       <c r="T15">
-        <v>0.01682814008777361</v>
+        <v>0.006818552230680622</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H16">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I16">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J16">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N16">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O16">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P16">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q16">
-        <v>34857.48267569244</v>
+        <v>27402.01598611536</v>
       </c>
       <c r="R16">
-        <v>313717.3440812319</v>
+        <v>246618.1438750383</v>
       </c>
       <c r="S16">
-        <v>0.1483103667914556</v>
+        <v>0.07039800782051996</v>
       </c>
       <c r="T16">
-        <v>0.1557297048967774</v>
+        <v>0.07263556299592508</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H17">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I17">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J17">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N17">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O17">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P17">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q17">
-        <v>887.978375620336</v>
+        <v>628.994844221679</v>
       </c>
       <c r="R17">
-        <v>5327.870253722016</v>
+        <v>3773.969065330074</v>
       </c>
       <c r="S17">
-        <v>0.00377813853675011</v>
+        <v>0.001615938914312772</v>
       </c>
       <c r="T17">
-        <v>0.002644761846911495</v>
+        <v>0.001111533658806362</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H18">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I18">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J18">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N18">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O18">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P18">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q18">
-        <v>4805.579807820411</v>
+        <v>63131.88839338484</v>
       </c>
       <c r="R18">
-        <v>43250.2182703837</v>
+        <v>568186.9955404636</v>
       </c>
       <c r="S18">
-        <v>0.02044660856822185</v>
+        <v>0.1621909561359887</v>
       </c>
       <c r="T18">
-        <v>0.02146946560348303</v>
+        <v>0.1673460908413802</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H19">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I19">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J19">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N19">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O19">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P19">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q19">
-        <v>42689.19455007713</v>
+        <v>17510.61054162002</v>
       </c>
       <c r="R19">
-        <v>384202.7509506941</v>
+        <v>157595.4948745802</v>
       </c>
       <c r="S19">
-        <v>0.181632453515319</v>
+        <v>0.04498618271282163</v>
       </c>
       <c r="T19">
-        <v>0.1907187541744239</v>
+        <v>0.04641603945262351</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H20">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I20">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J20">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N20">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O20">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P20">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q20">
-        <v>239.888236961776</v>
+        <v>262.6155713576491</v>
       </c>
       <c r="R20">
-        <v>959.552947847104</v>
+        <v>1050.462285430596</v>
       </c>
       <c r="S20">
-        <v>0.001020667864738453</v>
+        <v>0.0006746807627436533</v>
       </c>
       <c r="T20">
-        <v>0.0004763233535547515</v>
+        <v>0.0003093889131973164</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H21">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I21">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J21">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>25.62246</v>
       </c>
       <c r="O21">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P21">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q21">
-        <v>112.87465720128</v>
+        <v>150.35624221014</v>
       </c>
       <c r="R21">
-        <v>677.24794320768</v>
+        <v>902.1374532608401</v>
       </c>
       <c r="S21">
-        <v>0.0004802550421306091</v>
+        <v>0.0003862774155133969</v>
       </c>
       <c r="T21">
-        <v>0.0003361867755401255</v>
+        <v>0.0002657033289915356</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H22">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I22">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J22">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N22">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O22">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P22">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q22">
-        <v>1044.556140167349</v>
+        <v>1601.690495783597</v>
       </c>
       <c r="R22">
-        <v>6267.336841004096</v>
+        <v>9610.142974701581</v>
       </c>
       <c r="S22">
-        <v>0.004444339992185313</v>
+        <v>0.00411487315770342</v>
       </c>
       <c r="T22">
-        <v>0.00311111430449171</v>
+        <v>0.002830441160859926</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H23">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I23">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J23">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N23">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O23">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P23">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q23">
-        <v>26.609588340608</v>
+        <v>36.76572790838551</v>
       </c>
       <c r="R23">
-        <v>106.438353362432</v>
+        <v>147.062911633542</v>
       </c>
       <c r="S23">
-        <v>0.0001132175218641722</v>
+        <v>9.445414534949156E-05</v>
       </c>
       <c r="T23">
-        <v>5.283613951078988E-05</v>
+        <v>4.331391524759382E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H24">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I24">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J24">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N24">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O24">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P24">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q24">
-        <v>144.0063226029653</v>
+        <v>3690.157164779108</v>
       </c>
       <c r="R24">
-        <v>864.037935617792</v>
+        <v>22140.94298867465</v>
       </c>
       <c r="S24">
-        <v>0.0006127129352466988</v>
+        <v>0.00948031389649207</v>
       </c>
       <c r="T24">
-        <v>0.0004289095750426163</v>
+        <v>0.006521093030600174</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H25">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I25">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J25">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N25">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O25">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P25">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q25">
-        <v>1279.244996001301</v>
+        <v>1023.522447913762</v>
       </c>
       <c r="R25">
-        <v>7675.469976007808</v>
+        <v>6141.134687482574</v>
       </c>
       <c r="S25">
-        <v>0.005442885716626646</v>
+        <v>0.002629512417233118</v>
       </c>
       <c r="T25">
-        <v>0.003810113456775497</v>
+        <v>0.001808726513184378</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H26">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I26">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J26">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N26">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O26">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P26">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q26">
-        <v>534.9846889453087</v>
+        <v>2289.809694982247</v>
       </c>
       <c r="R26">
-        <v>3209.908133671852</v>
+        <v>13738.85816989348</v>
       </c>
       <c r="S26">
-        <v>0.002276233662180694</v>
+        <v>0.005882707348851333</v>
       </c>
       <c r="T26">
-        <v>0.001593402646788466</v>
+        <v>0.004046456933018805</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H27">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I27">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J27">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>25.62246</v>
       </c>
       <c r="O27">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P27">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q27">
-        <v>251.72644618776</v>
+        <v>1310.99302045956</v>
       </c>
       <c r="R27">
-        <v>2265.53801568984</v>
+        <v>11798.93718413604</v>
       </c>
       <c r="S27">
-        <v>0.001071036652662545</v>
+        <v>0.00336804769961901</v>
       </c>
       <c r="T27">
-        <v>0.001124616070077575</v>
+        <v>0.00347509891874594</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H28">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I28">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J28">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N28">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O28">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P28">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q28">
-        <v>2329.507894221527</v>
+        <v>13965.53299046933</v>
       </c>
       <c r="R28">
-        <v>20965.57104799375</v>
+        <v>125689.796914224</v>
       </c>
       <c r="S28">
-        <v>0.009911506618247868</v>
+        <v>0.03587859014384017</v>
       </c>
       <c r="T28">
-        <v>0.01040733722216862</v>
+        <v>0.03701896794071283</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H29">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I29">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J29">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N29">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O29">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P29">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q29">
-        <v>59.34314463126934</v>
+        <v>320.5694154862171</v>
       </c>
       <c r="R29">
-        <v>356.058867787616</v>
+        <v>1923.416492917302</v>
       </c>
       <c r="S29">
-        <v>0.0002524910828675358</v>
+        <v>0.0008235689020053551</v>
       </c>
       <c r="T29">
-        <v>0.0001767480933157732</v>
+        <v>0.0005664970048168331</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H30">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I30">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J30">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N30">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O30">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P30">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q30">
-        <v>321.1544620930329</v>
+        <v>32175.38704287989</v>
       </c>
       <c r="R30">
-        <v>2890.390158837296</v>
+        <v>289578.483385919</v>
       </c>
       <c r="S30">
-        <v>0.001366436484036326</v>
+        <v>0.0826611863090889</v>
       </c>
       <c r="T30">
-        <v>0.001434793501106941</v>
+        <v>0.08528851868620081</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H31">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I31">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J31">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N31">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O31">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P31">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q31">
-        <v>2852.897228052279</v>
+        <v>8924.343717125255</v>
       </c>
       <c r="R31">
-        <v>25676.07505247051</v>
+        <v>80319.09345412729</v>
       </c>
       <c r="S31">
-        <v>0.01213840477946548</v>
+        <v>0.02292736487379359</v>
       </c>
       <c r="T31">
-        <v>0.01274563764569353</v>
+        <v>0.0236560963467431</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H32">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I32">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J32">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N32">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O32">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P32">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q32">
-        <v>9747.166827861671</v>
+        <v>7172.282778664822</v>
       </c>
       <c r="R32">
-        <v>58483.00096717002</v>
+        <v>43033.69667198893</v>
       </c>
       <c r="S32">
-        <v>0.04147189574380118</v>
+        <v>0.01842617781842283</v>
       </c>
       <c r="T32">
-        <v>0.0290310390991232</v>
+        <v>0.01267456131350019</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H33">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I33">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J33">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>25.62246</v>
       </c>
       <c r="O33">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P33">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q33">
-        <v>4586.336238545461</v>
+        <v>4106.372981211779</v>
       </c>
       <c r="R33">
-        <v>41277.02614690914</v>
+        <v>36957.35683090601</v>
       </c>
       <c r="S33">
-        <v>0.0195137788949388</v>
+        <v>0.01054960618196107</v>
       </c>
       <c r="T33">
-        <v>0.02048997042130474</v>
+        <v>0.01088491859550429</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H34">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I34">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J34">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N34">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O34">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P34">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q34">
-        <v>42442.52693766195</v>
+        <v>43743.70148834366</v>
       </c>
       <c r="R34">
-        <v>381982.7424389576</v>
+        <v>393693.3133950929</v>
       </c>
       <c r="S34">
-        <v>0.1805829410071086</v>
+        <v>0.1123811270322329</v>
       </c>
       <c r="T34">
-        <v>0.1896167390103801</v>
+        <v>0.1159530885151477</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H35">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I35">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J35">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N35">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O35">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P35">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q35">
-        <v>1081.203897538156</v>
+        <v>1004.107242229258</v>
       </c>
       <c r="R35">
-        <v>6487.223385228936</v>
+        <v>6024.64345337555</v>
       </c>
       <c r="S35">
-        <v>0.004600267555524214</v>
+        <v>0.002579633174687341</v>
       </c>
       <c r="T35">
-        <v>0.003220266276127809</v>
+        <v>0.001774416765164616</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H36">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I36">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J36">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N36">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O36">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P36">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q36">
-        <v>5851.281698742192</v>
+        <v>100781.7264859261</v>
       </c>
       <c r="R36">
-        <v>52661.53528867972</v>
+        <v>907035.5383733351</v>
       </c>
       <c r="S36">
-        <v>0.02489582345961381</v>
+        <v>0.2589164524579757</v>
       </c>
       <c r="T36">
-        <v>0.02614125582994167</v>
+        <v>0.2671459445434891</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H37">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I37">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J37">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N37">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O37">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P37">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q37">
-        <v>51978.4319050156</v>
+        <v>27953.37834995032</v>
       </c>
       <c r="R37">
-        <v>467805.8871451404</v>
+        <v>251580.4051495529</v>
       </c>
       <c r="S37">
-        <v>0.2211559673657479</v>
+        <v>0.07181450257845531</v>
       </c>
       <c r="T37">
-        <v>0.2322194616540685</v>
+        <v>0.07409708012416151</v>
       </c>
     </row>
   </sheetData>
